--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.19426876504229537, 0.16364120572599727, 0.17585724837010477, 0.13823781080373698, 0.36997010207184206, 0.14746345388066803, 0.15781724496043834, 0.16439551323188364, 0.1005243254489963, 0.10499708069771696, 0.10641108231727008, 0.10554637556299769, 0.12828189141690693, 0.1476635650893182, 0.12140421076836844, 0.1109614396113983, 0.08022625785982869, 0.09399171699438791, 0.08956071036248883]</t>
+    <t>[1.0, 0.19023100517363417, 0.15957736476760695, 0.16915007635191742, 0.13025529307705677, 0.3651582042972734, 0.1375205118505719, 0.15144446280071494, 0.1574439255637781, 0.09053995764706509, 0.09281341298415349, 0.09823517080724811, 0.0907387799556728, 0.1194926198492851, 0.1416753636656969, 0.1054058682648264, 0.10348847331058442, 0.0636944224454599, 0.08466370979157527, 0.07991439927286213]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22034013690219126, 0.19387650748222593, 0.19030872883139097, 0.19432005671143426, 0.24496777617322266, 0.12460059693315556, 0.15444955974900518, 0.14858492367430082, 0.11790317505964992, 0.13412707583333314, 0.11555686209194008, 0.127491440693676, 0.13508331042851668, 0.15290803071864775, 0.10053001921307084, 0.10575958781562801, 0.10673933689254754, 0.10531566068994845, 0.08189275056326766]</t>
+    <t>[0.9999999999999999, 0.2117185060040424, 0.1868486722447619, 0.185671437039581, 0.19014342083429547, 0.24196770189726288, 0.1146872154050553, 0.15148431535082427, 0.15019020761816368, 0.11027954481969852, 0.1299340423183486, 0.11067989939237509, 0.12248137163331348, 0.13327679548900925, 0.14627548145225439, 0.08708399970625862, 0.0981745480129427, 0.09602965718752753, 0.10184818520682139, 0.06962746290834544]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.008942395604581113, -0.03115342952507032, -0.025864828039431704, -0.06276178704619029, 0.3062341198810408, -0.01517746074436223, 0.01065377428082957, 0.005570344630911677, -0.038735829245318, -0.04540306599321187, -0.05615598669290948, -0.04199200721831009, -0.01286598315480665, 0.0333257910731646, -0.006495119450522699, -0.01117146604527087, -0.0476798266196217, -0.052773188307566256, -0.01870700524106385]</t>
+    <t>[1.0, -0.010808380571508045, -0.02674827873927646, -0.024362968918563807, -0.05807573045685614, 0.30877310904565675, -0.02069091170190842, 0.014038259783707664, 0.008003352373506505, -0.040323179996447744, -0.04700525090030734, -0.05183819264679333, -0.04341594451254616, -0.011389003153922252, 0.032540767691482626, -0.017687163600546483, -0.008399396138445661, -0.04869495253717731, -0.04715054818403407, -0.013961750501083288]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.008519285975574479, -0.0309165188057894, -0.02551564631802768, -0.062114053872304925, 0.30603701410650397, -0.014617398254979184, 0.010968026493721444, 0.006025128634411305, -0.03815160139853932, -0.044780929655319754, -0.055931759287914565, -0.04177466653874382, -0.012862621113906991, 0.033412863055942224, -0.006447284614206047, -0.010940810679177822, -0.04736295102706475, -0.052328517382627816, -0.018856218139420764]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.011593150842141655, -0.003633802070473796, 0.001247896946016283, -0.029875748917702012, 0.2340350392672941, -0.017155907574380166, 0.00489354943360922, -0.002407462662252031, -0.03718396362152853, -0.043037766435038496, -0.042974635944310176, -0.028715440626545168, -0.019670124000556406, 0.01929272757528464, -0.001555355299112527, -0.010684511205526196, -0.029936365976336633, -0.03939273853083118, -0.033495783887166855]</t>
+    <t>[1.0, -0.010661196559691874, -0.026726530615183108, -0.024180422023687226, -0.05766887016402388, 0.3086060570930207, -0.02029259285375295, 0.014300440313646176, 0.008322663918891287, -0.03981838353263321, -0.046521164121585704, -0.051670852733149406, -0.04316146860662575, -0.01136178792940792, 0.03263703658557904, -0.017615061700667328, -0.008336309685379933, -0.04846878248876332, -0.04690195997255957, -0.013956762647933203]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.01202961087276561, 0.0011238303180410277, -0.0007174629323332885, -0.0303059370476774, 0.23386648165854698, -0.022241612781317633, 0.007632277479983158, -0.00023023096752381806, -0.03604941000908999, -0.05063782453733024, -0.03987532817805389, -0.031924615828510264, -0.018250414152227837, 0.027547719324608352, -0.010198708742010551, -0.0017548935395702908, -0.0344768342298025, -0.04153134719806645, -0.029408173527027487]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02767448908363682</v>
+        <v>-0.0155998373882116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8047757127757948</v>
+        <v>0.8080693289591837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>43.11434456897841</v>
+        <v>49.36903627112625</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9403537638831756</v>
+        <v>0.9108910891089109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-2.437708426073025</v>
+        <v>-2.660583875057185</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7115725858861324</v>
+        <v>0.7124804935154867</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>31.34385888964406</v>
+        <v>36.3794048605352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.355282900630713</v>
+        <v>2.554970230688115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.69230112966093</v>
+        <v>0.6909033534613436</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>27.06559673119342</v>
+        <v>30.43277575694534</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02312415407085303</v>
+        <v>-0.03977126274481312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8589133746316927</v>
+        <v>1.311842050611887</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07307536315403911</v>
+        <v>0.08015125752694374</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9093282917998065</v>
+        <v>0.8963444262047099</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.05076866730824595</v>
+        <v>-0.06199952145114571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8552331217361768</v>
+        <v>1.310222149942387</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06536518288929777</v>
+        <v>0.07416584059307202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9101970434274161</v>
+        <v>0.896916432021676</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01366213949475307</v>
+        <v>0.01072889588444607</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0433713319745662</v>
+        <v>-0.02475887293644817</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8047827018790829</v>
+        <v>1.285085415909744</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0812875597365546</v>
+        <v>0.08816511381665533</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9059948725649249</v>
+        <v>0.8903285959973737</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.01133801560033445</v>
+        <v>-0.008449193637179889</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7934167970366459</v>
+        <v>0.7988935808046292</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.19023100517363417, 0.15957736476760695, 0.16915007635191742, 0.13025529307705677, 0.3651582042972734, 0.1375205118505719, 0.15144446280071494, 0.1574439255637781, 0.09053995764706509, 0.09281341298415349, 0.09823517080724811, 0.0907387799556728, 0.1194926198492851, 0.1416753636656969, 0.1054058682648264, 0.10348847331058442, 0.0636944224454599, 0.08466370979157527, 0.07991439927286213]</t>
+    <t>[1.0, 0.022207096170267747, -0.03823237276396907, -0.09617065369444644, -0.10263211315825739, 0.0758623494219552, 0.019710505444981916, 0.04453455219793419, 0.035113853860857094, -0.014984468043391866, -0.025557892622576375, -0.026438729512850374, -0.004154538204781508, 0.004932830434421905, 0.055254612870286414, 0.019036929854697612, 0.01126241651045639, -0.03866852993032194, -0.049356888036541535, -0.0010941808226047954]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.2117185060040424, 0.1868486722447619, 0.185671437039581, 0.19014342083429547, 0.24196770189726288, 0.1146872154050553, 0.15148431535082427, 0.15019020761816368, 0.11027954481969852, 0.1299340423183486, 0.11067989939237509, 0.12248137163331348, 0.13327679548900925, 0.14627548145225439, 0.08708399970625862, 0.0981745480129427, 0.09602965718752753, 0.10184818520682139, 0.06962746290834544]</t>
+    <t>[1.0, 0.09942809580729636, -0.01581844129143008, -0.016360545666903054, 0.016260304349724954, 0.03617349924709207, -0.0016137658443848362, 0.011835130770821649, 0.003275445819416438, 0.008316791367869447, -0.00714019547087173, 0.006778493546845363, -0.016662795757746908, -0.002734101564051823, 0.01009811336756387, -0.0021922430889197322, -0.00834100108288927, 0.005493944931717108, -0.010409530770728885, 0.008474816117425002]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.010808380571508045, -0.02674827873927646, -0.024362968918563807, -0.05807573045685614, 0.30877310904565675, -0.02069091170190842, 0.014038259783707664, 0.008003352373506505, -0.040323179996447744, -0.04700525090030734, -0.05183819264679333, -0.04341594451254616, -0.011389003153922252, 0.032540767691482626, -0.017687163600546483, -0.008399396138445661, -0.04869495253717731, -0.04715054818403407, -0.013961750501083288]</t>
+    <t>[1.0, -0.007700235263675449, -0.04166627016872811, -0.09392418823806951, -0.11406974978898479, 0.10703502772690926, 0.004600835732978159, 0.0555857369761117, 0.027245472303308156, -0.012835634061624553, -0.02741135623324103, -0.03456039081038182, -0.016613775634588435, 0.01971567750553987, 0.047940690903815655, 0.011754148990867191, 0.0010339794633052084, -0.03692751952828282, -0.05183900332966369, -0.001382757226537816]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.010661196559691874, -0.026726530615183108, -0.024180422023687226, -0.05766887016402388, 0.3086060570930207, -0.02029259285375295, 0.014300440313646176, 0.008322663918891287, -0.03981838353263321, -0.046521164121585704, -0.051670852733149406, -0.04316146860662575, -0.01136178792940792, 0.03263703658557904, -0.017615061700667328, -0.008336309685379933, -0.04846878248876332, -0.04690195997255957, -0.013956762647933203]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.01202961087276561, 0.0011238303180410277, -0.0007174629323332885, -0.0303059370476774, 0.23386648165854698, -0.022241612781317633, 0.007632277479983158, -0.00023023096752381806, -0.03604941000908999, -0.05063782453733024, -0.03987532817805389, -0.031924615828510264, -0.018250414152227837, 0.027547719324608352, -0.010198708742010551, -0.0017548935395702908, -0.0344768342298025, -0.04153134719806645, -0.029408173527027487]</t>
+    <t>[1.0, -0.0037175150995300086, -0.03975663958297556, -0.09489494262139268, -0.11354582316914354, 0.10644449999531425, 0.006231207634274265, 0.05543860190984388, 0.028091415065847537, -0.010960779771878329, -0.027133972791784082, -0.03415335634796045, -0.017068038154701388, 0.01890522966725043, 0.04717232090924073, 0.01269366310501702, 0.001073059811089547, -0.03708449431029641, -0.05219276583871505, -0.00041264933388403903]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.010922272246122081, -0.038043610632496366, -0.09465962922924305, -0.10367939252057189, 0.07765434801432926, 0.019060563107717327, 0.04410206164273828, 0.03677540085070315, -0.012005608770991008, -0.024799541670654835, -0.026836059697918066, -0.002826758053029191, 0.0038152630475419896, 0.05651319682354552, 0.018403705599285697, 0.012535391725134182, -0.038380745391197284, -0.05021377939301723, -0.003083215758436748]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0155998373882116</v>
+        <v>0.0006435182975611956</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8080693289591837</v>
+        <v>0.7821501015054658</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>49.36903627112625</v>
+        <v>0.1033347820053903</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-2.660583875057185</v>
+        <v>-0.1866208303222265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7124804935154867</v>
+        <v>0.5700724211969826</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>36.3794048605352</v>
+        <v>0.06631996706113626</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.554970230688115</v>
+        <v>0.1680596614087125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6909033534613436</v>
+        <v>0.5811439645546888</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>30.43277575694534</v>
+        <v>0.05718170724591762</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.03977126274481312</v>
+        <v>-0.0007205375476518765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.311842050611887</v>
+        <v>0.1113320037510603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08015125752694374</v>
+        <v>0.03683693758144928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8963444262047099</v>
+        <v>2.806299768179604E-16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.06199952145114571</v>
+        <v>-0.001747518788148759</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.310222149942387</v>
+        <v>0.1120460552106263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07416584059307202</v>
+        <v>8.98463376722993E-12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.896916432021676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01072889588444607</v>
+        <v>0.05818298852740635</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02475887293644817</v>
+        <v>0.0006595151091066017</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.285085415909744</v>
+        <v>0.1002023654162825</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08816511381665533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8903285959973737</v>
+        <v>6.594045302147165E-09</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.008449193637179889</v>
+        <v>0.05469225589322876</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7988935808046292</v>
+        <v>0.7830964463375857</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.017126835637284413, -0.05051348021110065, -0.08361693920240239, -0.10564362910023159, 0.07628304754438515, 0.02101825278443388, 0.047836110671917426, 0.03592487820550601, -0.01760922213026192, -0.028712236667684823, -0.028022195601861494, 0.010050024126730556, 0.013227051613230909, 0.048315132093896034, 0.027200533043705982, -0.0029520824082833004, -0.025622451073589198, -0.04018830713635891, 0.00028803342662755754]</t>
+    <t>[1.0, 0.19426876504229537, 0.16364120572599727, 0.17585724837010477, 0.13823781080373698, 0.36997010207184206, 0.14746345388066803, 0.15781724496043834, 0.16439551323188364, 0.1005243254489963, 0.10499708069771696, 0.10641108231727008, 0.10554637556299769, 0.12828189141690693, 0.1476635650893182, 0.12140421076836844, 0.1109614396113983, 0.08022625785982869, 0.09399171699438791, 0.08956071036248883]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08687063155529165, -0.019799183136706533, -0.004486033770671277, 0.012586121793738112, 0.018880759748610237, -0.0038999709093813844, 0.02173870287590043, -0.006892885457627852, 0.004730836724920496, -0.011065509486381287, 0.0025778506245409303, -0.009403864831293138, 0.005835883618497333, 0.012058769630459112, -0.008660538281685701, -0.009555795648948555, 0.015110618511648723, -0.0017240822165880507, 0.013907808592477654]</t>
+    <t>[1.0, 0.22034013690219126, 0.19387650748222593, 0.19030872883139097, 0.19432005671143426, 0.24496777617322266, 0.12460059693315556, 0.15444955974900518, 0.14858492367430082, 0.11790317505964992, 0.13412707583333314, 0.11555686209194008, 0.127491440693676, 0.13508331042851668, 0.15290803071864775, 0.10053001921307084, 0.10575958781562801, 0.10673933689254754, 0.10531566068994845, 0.08189275056326766]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.008891884527568951, -0.05132634676979416, -0.0825089809754767, -0.1163627404708483, 0.1077510766132471, 0.015260840136817097, 0.05305574305436646, 0.027050806774701452, -0.014668344459862188, -0.037414661316396855, -0.038891864217473766, -0.0037332199879114595, 0.02477399298354682, 0.05207917149652605, 0.021770901794108517, -0.007290377756154103, -0.03128677573727961, -0.04658533837302869, 0.0010043054146033224]</t>
+    <t>[1.0, -0.008942395604581113, -0.03115342952507032, -0.025864828039431704, -0.06276178704619029, 0.3062341198810408, -0.01517746074436223, 0.01065377428082957, 0.005570344630911677, -0.038735829245318, -0.04540306599321187, -0.05615598669290948, -0.04199200721831009, -0.01286598315480665, 0.0333257910731646, -0.006495119450522699, -0.01117146604527087, -0.0476798266196217, -0.052773188307566256, -0.01870700524106385]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, -0.0035531073754045753, -0.04935531129583425, -0.08325940348288224, -0.11638929116916351, 0.10705101401521303, 0.017585566770859633, 0.05290825195875962, 0.02771342743977205, -0.013207446212952273, -0.03788441459738135, -0.03843642965957245, -0.0036106780669536527, 0.02416544962952979, 0.05158438380976811, 0.022529493586277736, -0.007615325941020393, -0.03173679977087517, -0.04700489872968136, 0.0012866849361415054]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.008041682621671079, -0.050291720897532546, -0.08170060072167089, -0.10715183096868466, 0.07812718491682433, 0.020475857392280798, 0.04720873499707355, 0.03665037818548534, -0.015094817307770203, -0.028353592643463897, -0.028495973718475776, 0.01084460646047945, 0.0127511180035285, 0.04864300277036852, 0.027004432616393032, -0.0031278606416562213, -0.025230872895771264, -0.04076502635215673, -0.0011374800448833346]</t>
+    <t>[1.0, -0.008519285975574479, -0.0309165188057894, -0.02551564631802768, -0.062114053872304925, 0.30603701410650397, -0.014617398254979184, 0.010968026493721444, 0.006025128634411305, -0.03815160139853932, -0.044780929655319754, -0.055931759287914565, -0.04177466653874382, -0.012862621113906991, 0.033412863055942224, -0.006447284614206047, -0.010940810679177822, -0.04736295102706475, -0.052328517382627816, -0.018856218139420764]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.011593150842141655, -0.003633802070473796, 0.001247896946016283, -0.029875748917702012, 0.2340350392672941, -0.017155907574380166, 0.00489354943360922, -0.002407462662252031, -0.03718396362152853, -0.043037766435038496, -0.042974635944310176, -0.028715440626545168, -0.019670124000556406, 0.01929272757528464, -0.001555355299112527, -0.010684511205526196, -0.029936365976336633, -0.03939273853083118, -0.033495783887166855]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001131132885749221</v>
+        <v>-0.02767448908363682</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7775225368931283</v>
+        <v>0.8047757127757948</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1026017847915957</v>
+        <v>43.11434456897841</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1895762515884357</v>
+        <v>-2.437708426073025</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5580918131755734</v>
+        <v>0.7115725858861324</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06571846519550688</v>
+        <v>31.34385888964406</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1676569521225626</v>
+        <v>2.355282900630713</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5722790061366531</v>
+        <v>0.69230112966093</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05838378309244448</v>
+        <v>27.06559673119342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003434397310333786</v>
+        <v>-0.02312415407085303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.111263886495323</v>
+        <v>0.8589133746316927</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03378280230428467</v>
+        <v>0.07307536315403911</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.88615548213192E-15</v>
+        <v>0.9093282917998065</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001232779673682728</v>
+        <v>-0.05076866730824595</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1121485844757362</v>
+        <v>0.8552331217361768</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06536518288929777</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.706397347609987E-10</v>
+        <v>0.9101970434274161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.04959795826082511</v>
+        <v>0.01366213949475307</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001240771250020067</v>
+        <v>-0.0433713319745662</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1002819628589496</v>
+        <v>0.8047827018790829</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.811068546580609E-10</v>
+        <v>0.0812875597365546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9059948725649249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.04086505991635536</v>
+        <v>-0.01133801560033445</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7785847487573123</v>
+        <v>0.7934167970366459</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/coffee-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.19426876504229537, 0.16364120572599727, 0.17585724837010477, 0.13823781080373698, 0.36997010207184206, 0.14746345388066803, 0.15781724496043834, 0.16439551323188364, 0.1005243254489963, 0.10499708069771696, 0.10641108231727008, 0.10554637556299769, 0.12828189141690693, 0.1476635650893182, 0.12140421076836844, 0.1109614396113983, 0.08022625785982869, 0.09399171699438791, 0.08956071036248883]</t>
+    <t>[1.0, 0.19426876504229573, 0.1636412057259976, 0.17585724837010513, 0.13823781080373732, 0.3699701020718416, 0.14746345388066806, 0.15781724496043828, 0.1643955132318837, 0.10052432544899632, 0.10499708069771706, 0.10641108231727014, 0.1055463755629979, 0.12828189141690693, 0.1476635650893182, 0.12140421076836844, 0.11096143961139827, 0.08022625785982888, 0.093991716994388, 0.08956071036248872]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22034013690219126, 0.19387650748222593, 0.19030872883139097, 0.19432005671143426, 0.24496777617322266, 0.12460059693315556, 0.15444955974900518, 0.14858492367430082, 0.11790317505964992, 0.13412707583333314, 0.11555686209194008, 0.127491440693676, 0.13508331042851668, 0.15290803071864775, 0.10053001921307084, 0.10575958781562801, 0.10673933689254754, 0.10531566068994845, 0.08189275056326766]</t>
+    <t>[1.0, 0.22034013690219117, 0.19387650748222574, 0.19030872883139105, 0.19432005671143418, 0.24496777617322282, 0.12460059693315562, 0.1544495597490054, 0.1485849236743011, 0.11790317505965, 0.13412707583333314, 0.11555686209193974, 0.12749144069367593, 0.13508331042851668, 0.1529080307186479, 0.10053001921307103, 0.105759587815628, 0.10673933689254757, 0.10531566068994844, 0.0818927505632677]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.008942395604581113, -0.03115342952507032, -0.025864828039431704, -0.06276178704619029, 0.3062341198810408, -0.01517746074436223, 0.01065377428082957, 0.005570344630911677, -0.038735829245318, -0.04540306599321187, -0.05615598669290948, -0.04199200721831009, -0.01286598315480665, 0.0333257910731646, -0.006495119450522699, -0.01117146604527087, -0.0476798266196217, -0.052773188307566256, -0.01870700524106385]</t>
+    <t>[1.0, -0.008942359825945313, -0.031153403032806226, -0.025864807902803606, -0.0627617581032928, 0.3062341373798934, -0.015177450152944064, 0.0106537832827182, 0.005570349353465231, -0.03873581952302224, -0.04540305717759677, -0.05615598146348822, -0.0419920105339019, -0.012865994353664048, 0.03332578727370695, -0.006495129507024574, -0.01117147558223611, -0.047679829048889164, -0.05277319317557618, -0.018707011275115037]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.008519285975574479, -0.0309165188057894, -0.02551564631802768, -0.062114053872304925, 0.30603701410650397, -0.014617398254979184, 0.010968026493721444, 0.006025128634411305, -0.03815160139853932, -0.044780929655319754, -0.055931759287914565, -0.04177466653874382, -0.012862621113906991, 0.033412863055942224, -0.006447284614206047, -0.010940810679177822, -0.04736295102706475, -0.052328517382627816, -0.018856218139420764]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.011593150842141655, -0.003633802070473796, 0.001247896946016283, -0.029875748917702012, 0.2340350392672941, -0.017155907574380166, 0.00489354943360922, -0.002407462662252031, -0.03718396362152853, -0.043037766435038496, -0.042974635944310176, -0.028715440626545168, -0.019670124000556406, 0.01929272757528464, -0.001555355299112527, -0.010684511205526196, -0.029936365976336633, -0.03939273853083118, -0.033495783887166855]</t>
+    <t>[0.9999999999999999, -0.008519217819475212, -0.03091646262569493, -0.025515603319975953, -0.06211400709646126, 0.3060370467585485, -0.014617363198061816, 0.010968047474020356, 0.006025132973385827, -0.03815158741292822, -0.044780918885842964, -0.05593175969363981, -0.0417746782451658, -0.012862634612630493, 0.033412858770666985, -0.006447300407606637, -0.010940839198618848, -0.04736297026139364, -0.052328535850938045, -0.018856229723815756]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.011592932287296513, -0.0036339712626346473, 0.0012477884583495477, -0.029875883247112267, 0.23403493393841482, -0.017155976759149275, 0.0048935061912090344, -0.0024074432652164946, -0.03718397096226185, -0.04303777523619381, -0.04297459510685805, -0.02871537772921139, -0.019670063400359525, 0.01929278502717827, -0.001555274900925321, -0.01068440311563202, -0.02993628004387196, -0.03939264710180989, -0.03349571807180794]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02767448908363682</v>
+        <v>-0.02767448908363681</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8047757127757948</v>
+        <v>0.8047757127757939</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9403537638831756</v>
+        <v>0.4846300614797541</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-2.437708426073025</v>
+        <v>-2.437708426073031</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7115725858861324</v>
+        <v>0.7115725858861316</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.355282900630713</v>
+        <v>2.355282900630695</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.69230112966093</v>
+        <v>0.6923011296609326</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02312415407085303</v>
+        <v>-0.02312465287268075</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8589133746316927</v>
+        <v>0.8589120709704969</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07307536315403911</v>
+        <v>0.0730753200181018</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9093282917998065</v>
+        <v>0.9093283715753193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.05076866730824595</v>
+        <v>-0.05076842179390265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8552331217361768</v>
+        <v>0.8552303133562712</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06536518288929777</v>
+        <v>0.06536510553600429</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9101970434274161</v>
+        <v>0.9101971989386053</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01366213949475307</v>
+        <v>0.01366210875724415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0433713319745662</v>
+        <v>-0.04337120574452921</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.8047827018790829</v>
+        <v>0.804791308522961</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0812875597365546</v>
+        <v>0.08128781020180739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9059948725649249</v>
+        <v>0.9059943926954016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.01133801560033445</v>
+        <v>-0.01133799941424385</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7934167970366459</v>
+        <v>0.7934167756316883</v>
       </c>
     </row>
   </sheetData>
